--- a/input_data/admin_data/URY/gpinter_URY_2015.xlsx
+++ b/input_data/admin_data/URY/gpinter_URY_2015.xlsx
@@ -2158,31 +2158,31 @@
         <v>17903.12523207091</v>
       </c>
       <c r="D49">
-        <v>0.39411595038938563</v>
+        <v>0.39423132391116239</v>
       </c>
       <c r="E49">
-        <v>0.60588404961061437</v>
+        <v>0.60576867608883767</v>
       </c>
       <c r="F49">
         <v>0.53452552639169315</v>
       </c>
       <c r="G49">
-        <v>0.26282088260744157</v>
+        <v>0.26284972598788581</v>
       </c>
       <c r="H49">
-        <v>0.16253244880299969</v>
+        <v>0.16250360542255551</v>
       </c>
       <c r="I49">
         <v>0.040121142197865597</v>
       </c>
       <c r="J49">
-        <v>0.73281320345757572</v>
+        <v>0.73284922077884518</v>
       </c>
       <c r="K49">
         <v>0.0278269339307637</v>
       </c>
       <c r="L49">
-        <v>0.1956655348801877</v>
+        <v>0.19562951755891819</v>
       </c>
       <c r="M49">
         <v>0.043694327728510701</v>
@@ -2208,31 +2208,31 @@
         <v>27073.935351568129</v>
       </c>
       <c r="D50">
-        <v>0.40751636814628939</v>
+        <v>0.40742984050070657</v>
       </c>
       <c r="E50">
-        <v>0.59248363185371056</v>
+        <v>0.59257015949929337</v>
       </c>
       <c r="F50">
         <v>0.5322315479795795</v>
       </c>
       <c r="G50">
-        <v>0.27351388768711599</v>
+        <v>0.27345620259006093</v>
       </c>
       <c r="H50">
-        <v>0.15973003374578179</v>
+        <v>0.15978771884283699</v>
       </c>
       <c r="I50">
         <v>0.034524530587522702</v>
       </c>
       <c r="J50">
-        <v>0.74845546747195024</v>
+        <v>0.74843165105935594</v>
       </c>
       <c r="K50">
         <v>0.023953342988457201</v>
       </c>
       <c r="L50">
-        <v>0.1888697522874776</v>
+        <v>0.1888935687000719</v>
       </c>
       <c r="M50">
         <v>0.038721437263059003</v>
@@ -2258,31 +2258,31 @@
         <v>37052.347962429238</v>
       </c>
       <c r="D51">
-        <v>0.40677819440438417</v>
+        <v>0.40674935102394</v>
       </c>
       <c r="E51">
-        <v>0.59322180559561577</v>
+        <v>0.59325064897606006</v>
       </c>
       <c r="F51">
-        <v>0.52307470435535042</v>
+        <v>0.52304586097490624</v>
       </c>
       <c r="G51">
-        <v>0.29841361407556971</v>
+        <v>0.29847130083645801</v>
       </c>
       <c r="H51">
-        <v>0.14727430054802421</v>
+        <v>0.14724545716758</v>
       </c>
       <c r="I51">
         <v>0.0312373810210557</v>
       </c>
       <c r="J51">
-        <v>0.74683359850110143</v>
+        <v>0.74680081877258453</v>
       </c>
       <c r="K51">
         <v>0.021030580003950399</v>
       </c>
       <c r="L51">
-        <v>0.19729803555858941</v>
+        <v>0.19733081528710639</v>
       </c>
       <c r="M51">
         <v>0.034837785915476698</v>
@@ -2314,10 +2314,10 @@
         <v>0.59957889879149717</v>
       </c>
       <c r="F52">
-        <v>0.49225577572034263</v>
+        <v>0.49228461826887021</v>
       </c>
       <c r="G52">
-        <v>0.27983040581465779</v>
+        <v>0.2798015632661302</v>
       </c>
       <c r="H52">
         <v>0.19820599348158399</v>
@@ -2326,13 +2326,13 @@
         <v>0.029707824983415499</v>
       </c>
       <c r="J52">
-        <v>0.71487146969999038</v>
+        <v>0.71486540003590793</v>
       </c>
       <c r="K52">
-        <v>0.0185113369527805</v>
+        <v>0.018543244413551999</v>
       </c>
       <c r="L52">
-        <v>0.23343318456289969</v>
+        <v>0.23340734676621061</v>
       </c>
       <c r="M52">
         <v>0.0331840087813308</v>
@@ -2358,16 +2358,16 @@
         <v>57124.262455361648</v>
       </c>
       <c r="D53">
-        <v>0.39225865997519538</v>
+        <v>0.39220097487814021</v>
       </c>
       <c r="E53">
-        <v>0.60774134002480462</v>
+        <v>0.60779902512185979</v>
       </c>
       <c r="F53">
-        <v>0.48709295953390441</v>
+        <v>0.487121802082432</v>
       </c>
       <c r="G53">
-        <v>0.29407862478728619</v>
+        <v>0.29404978223875861</v>
       </c>
       <c r="H53">
         <v>0.19200484554815259</v>
@@ -2376,10 +2376,10 @@
         <v>0.026823570130656699</v>
       </c>
       <c r="J53">
-        <v>0.71369761472347526</v>
+        <v>0.71372387049119135</v>
       </c>
       <c r="K53">
-        <v>0.0191494379460256</v>
+        <v>0.019123182178309502</v>
       </c>
       <c r="L53">
         <v>0.23721115090724759</v>
@@ -2408,10 +2408,10 @@
         <v>67149.697273399186</v>
       </c>
       <c r="D54">
-        <v>0.40389385635996539</v>
+        <v>0.40395154312085368</v>
       </c>
       <c r="E54">
-        <v>0.59610614364003456</v>
+        <v>0.5960484568791462</v>
       </c>
       <c r="F54">
         <v>0.4845976348428036</v>
@@ -2464,10 +2464,10 @@
         <v>0.59623316316229702</v>
       </c>
       <c r="F55">
-        <v>0.49188082258948401</v>
+        <v>0.49182313749242879</v>
       </c>
       <c r="G55">
-        <v>0.30160652995298659</v>
+        <v>0.30166421505004182</v>
       </c>
       <c r="H55">
         <v>0.1819099535634969</v>
@@ -2508,22 +2508,22 @@
         <v>87458.289297979165</v>
       </c>
       <c r="D56">
-        <v>0.42223824632246898</v>
+        <v>0.42125757138736658</v>
       </c>
       <c r="E56">
-        <v>0.57776175367753102</v>
+        <v>0.57874242861263347</v>
       </c>
       <c r="F56">
-        <v>0.47086818575137013</v>
+        <v>0.47034900490337472</v>
       </c>
       <c r="G56">
-        <v>0.29942313239111618</v>
+        <v>0.29974040957600229</v>
       </c>
       <c r="H56">
-        <v>0.20617248341505631</v>
+        <v>0.20640323045860981</v>
       </c>
       <c r="I56">
-        <v>0.023536198442457499</v>
+        <v>0.023507355062013301</v>
       </c>
       <c r="J56">
         <v>0.70419273548451722</v>
@@ -2558,22 +2558,22 @@
         <v>92698.433858402917</v>
       </c>
       <c r="D57">
-        <v>0.40333419860978909</v>
+        <v>0.40431484525972722</v>
       </c>
       <c r="E57">
-        <v>0.59666580139021086</v>
+        <v>0.59568515474027284</v>
       </c>
       <c r="F57">
-        <v>0.22540451674309939</v>
+        <v>0.2259525251651236</v>
       </c>
       <c r="G57">
-        <v>0.24565198580946609</v>
+        <v>0.2453058752271351</v>
       </c>
       <c r="H57">
-        <v>0.52314614519338931</v>
+        <v>0.52291540480516863</v>
       </c>
       <c r="I57">
-        <v>0.0057973522540452002</v>
+        <v>0.0058261948025727997</v>
       </c>
       <c r="J57">
         <v>0.17144129892970991</v>
@@ -2608,22 +2608,22 @@
         <v>94862.933943926662</v>
       </c>
       <c r="D58">
-        <v>0.47620421113354477</v>
+        <v>0.47608883761176812</v>
       </c>
       <c r="E58">
-        <v>0.52379578886645517</v>
+        <v>0.52391116238823188</v>
       </c>
       <c r="F58">
-        <v>0.3152581482549755</v>
+        <v>0.31517161811364292</v>
       </c>
       <c r="G58">
-        <v>0.34052494952408419</v>
+        <v>0.34040957600230748</v>
       </c>
       <c r="H58">
-        <v>0.34193827516584951</v>
+        <v>0.34216902220940287</v>
       </c>
       <c r="I58">
-        <v>0.0022786270550908998</v>
+        <v>0.0022497836746467</v>
       </c>
       <c r="J58">
         <v>0.060741683648839202</v>
@@ -2658,31 +2658,31 @@
         <v>95544</v>
       </c>
       <c r="D59">
-        <v>0.31501831501831501</v>
+        <v>0.31397998327132193</v>
       </c>
       <c r="E59">
-        <v>0.68498168498168499</v>
+        <v>0.68602001672867807</v>
       </c>
       <c r="F59">
-        <v>0.0031149952409795</v>
+        <v>0.0031438377895070999</v>
       </c>
       <c r="G59">
-        <v>0.037726053474085003</v>
+        <v>0.039139338351936802</v>
       </c>
       <c r="H59">
-        <v>0.95898589599377004</v>
+        <v>0.95748608347033548</v>
       </c>
       <c r="I59">
-        <v>0.0001730552911655</v>
+        <v>0.0002307403882207</v>
       </c>
       <c r="J59">
-        <v>2.8842548527599999e-05</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0.99997115745147236</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -2708,31 +2708,31 @@
         <v>95828.757051755834</v>
       </c>
       <c r="D60">
-        <v>0.34574560138448218</v>
+        <v>0.34689933660224981</v>
       </c>
       <c r="E60">
-        <v>0.65425439861551782</v>
+        <v>0.65310066339775019</v>
       </c>
       <c r="F60">
-        <v>0.10083645803288151</v>
+        <v>0.1008653014133256</v>
       </c>
       <c r="G60">
-        <v>0.091173925584078497</v>
+        <v>0.089904816844534205</v>
       </c>
       <c r="H60">
-        <v>0.8035765791750793</v>
+        <v>0.80484568791462363</v>
       </c>
       <c r="I60">
-        <v>0.0044130372079608004</v>
+        <v>0.0043841938275166002</v>
       </c>
       <c r="J60">
-        <v>0.1495950939296197</v>
+        <v>0.149623851601387</v>
       </c>
       <c r="K60">
         <v>0.0028137715164827</v>
       </c>
       <c r="L60">
-        <v>0.84265618898079275</v>
+        <v>0.84262743130902551</v>
       </c>
       <c r="M60">
         <v>0.0049349455715649001</v>
@@ -2764,10 +2764,10 @@
         <v>0.60269389403247664</v>
       </c>
       <c r="F61">
-        <v>0.27215828790631941</v>
+        <v>0.27218713045484699</v>
       </c>
       <c r="G61">
-        <v>0.1875630930749041</v>
+        <v>0.18753425052637651</v>
       </c>
       <c r="H61">
         <v>0.52591502985203775</v>
@@ -2858,22 +2858,22 @@
         <v>116117.7107218569</v>
       </c>
       <c r="D63">
-        <v>0.47835366733004531</v>
+        <v>0.47939199907703839</v>
       </c>
       <c r="E63">
-        <v>0.52164633266995475</v>
+        <v>0.52060800092296156</v>
       </c>
       <c r="F63">
-        <v>0.22416428715641321</v>
+        <v>0.22413544460788559</v>
       </c>
       <c r="G63">
-        <v>0.15113495428456061</v>
+        <v>0.1511637968330882</v>
       </c>
       <c r="H63">
-        <v>0.61431744108909458</v>
+        <v>0.61428859854056705</v>
       </c>
       <c r="I63">
-        <v>0.0103833174699316</v>
+        <v>0.0104121600184592</v>
       </c>
       <c r="J63">
         <v>0.34325919164440388</v>
@@ -2908,31 +2908,31 @@
         <v>118701.5403351775</v>
       </c>
       <c r="D64">
-        <v>0.50702316056646768</v>
+        <v>0.50601367136800213</v>
       </c>
       <c r="E64">
-        <v>0.49297683943353232</v>
+        <v>0.49398632863199787</v>
       </c>
       <c r="F64">
-        <v>0.18767846326901441</v>
+        <v>0.187707305817542</v>
       </c>
       <c r="G64">
-        <v>0.1217443973349485</v>
+        <v>0.1216867122378933</v>
       </c>
       <c r="H64">
-        <v>0.68247238325978488</v>
+        <v>0.68253006835684005</v>
       </c>
       <c r="I64">
-        <v>0.0081047561362521999</v>
+        <v>0.0080759135877246004</v>
       </c>
       <c r="J64">
-        <v>0.2888822694196031</v>
+        <v>0.28886002231100932</v>
       </c>
       <c r="K64">
         <v>0.0060834251010650001</v>
       </c>
       <c r="L64">
-        <v>0.69546711664099192</v>
+        <v>0.69548936374958581</v>
       </c>
       <c r="M64">
         <v>0.0095671888407840994</v>
@@ -2958,31 +2958,31 @@
         <v>125613.5544901031</v>
       </c>
       <c r="D65">
-        <v>0.43940005768676088</v>
+        <v>0.4393712143063167</v>
       </c>
       <c r="E65">
-        <v>0.56059994231323906</v>
+        <v>0.56062878569368335</v>
       </c>
       <c r="F65">
         <v>0.35137006057109887</v>
       </c>
       <c r="G65">
-        <v>0.23651571964234211</v>
+        <v>0.23654456302278631</v>
       </c>
       <c r="H65">
-        <v>0.39630804730314401</v>
+        <v>0.39627920392269972</v>
       </c>
       <c r="I65">
         <v>0.0158061724834151</v>
       </c>
       <c r="J65">
-        <v>0.54683595191876999</v>
+        <v>0.5468569754638597</v>
       </c>
       <c r="K65">
         <v>0.0098978567960517003</v>
       </c>
       <c r="L65">
-        <v>0.42409726217629379</v>
+        <v>0.42407623863120408</v>
       </c>
       <c r="M65">
         <v>0.019168929123041301</v>
@@ -3017,22 +3017,22 @@
         <v>0.32995875515560558</v>
       </c>
       <c r="G66">
-        <v>0.21548268004960919</v>
+        <v>0.2155115225981368</v>
       </c>
       <c r="H66">
-        <v>0.44206974128233972</v>
+        <v>0.44204089873381208</v>
       </c>
       <c r="I66">
         <v>0.012488823512445599</v>
       </c>
       <c r="J66">
-        <v>0.51754360271343336</v>
+        <v>0.5175732163664023</v>
       </c>
       <c r="K66">
         <v>0.0095469443987944002</v>
       </c>
       <c r="L66">
-        <v>0.45683818540621901</v>
+        <v>0.45680857175325013</v>
       </c>
       <c r="M66">
         <v>0.016071267492165999</v>
@@ -3058,31 +3058,31 @@
         <v>140893.74430884051</v>
       </c>
       <c r="D67">
-        <v>0.4632535333141044</v>
+        <v>0.46328237669454858</v>
       </c>
       <c r="E67">
-        <v>0.53674646668589565</v>
+        <v>0.53671762330545136</v>
       </c>
       <c r="F67">
-        <v>0.37929045284107299</v>
+        <v>0.37934813960196129</v>
       </c>
       <c r="G67">
-        <v>0.24035188924141909</v>
+        <v>0.24026535910008651</v>
       </c>
       <c r="H67">
-        <v>0.36504182290164411</v>
+        <v>0.36507066628208829</v>
       </c>
       <c r="I67">
         <v>0.0153158350158639</v>
       </c>
       <c r="J67">
-        <v>0.59469916399573908</v>
+        <v>0.59467115867538844</v>
       </c>
       <c r="K67">
         <v>0.010813760037176301</v>
       </c>
       <c r="L67">
-        <v>0.37342726743522581</v>
+        <v>0.37345527275557627</v>
       </c>
       <c r="M67">
         <v>0.021059808516031699</v>
@@ -3108,16 +3108,16 @@
         <v>149076.47871600179</v>
       </c>
       <c r="D68">
-        <v>0.47151798332900702</v>
+        <v>0.47148914078047938</v>
       </c>
       <c r="E68">
-        <v>0.52848201667099304</v>
+        <v>0.52851085921952068</v>
       </c>
       <c r="F68">
-        <v>0.37789507080845658</v>
+        <v>0.37783738571140152</v>
       </c>
       <c r="G68">
-        <v>0.22422197225346829</v>
+        <v>0.22427965735052349</v>
       </c>
       <c r="H68">
         <v>0.38395200599925011</v>
@@ -3264,10 +3264,10 @@
         <v>0.54349581770983557</v>
       </c>
       <c r="F71">
-        <v>0.4007499278915489</v>
+        <v>0.40072108451110472</v>
       </c>
       <c r="G71">
-        <v>0.2346408999134699</v>
+        <v>0.23466974329391399</v>
       </c>
       <c r="H71">
         <v>0.35252379578886639</v>
@@ -3364,10 +3364,10 @@
         <v>0.51707528122295932</v>
       </c>
       <c r="F73">
-        <v>0.42740121142197868</v>
+        <v>0.42743005480242291</v>
       </c>
       <c r="G73">
-        <v>0.24413037207960769</v>
+        <v>0.24410152869916349</v>
       </c>
       <c r="H73">
         <v>0.31742140178828959</v>
@@ -3408,16 +3408,16 @@
         <v>197530.31194117561</v>
       </c>
       <c r="D74">
-        <v>0.48735254247065268</v>
+        <v>0.4873236999221251</v>
       </c>
       <c r="E74">
-        <v>0.51264745752934737</v>
+        <v>0.5126763000778749</v>
       </c>
       <c r="F74">
-        <v>0.4277638372126561</v>
+        <v>0.42779267976118368</v>
       </c>
       <c r="G74">
-        <v>0.24340226702431431</v>
+        <v>0.24337342447578669</v>
       </c>
       <c r="H74">
         <v>0.31882553142395659</v>
@@ -3464,10 +3464,10 @@
         <v>0.50545139890395152</v>
       </c>
       <c r="F75">
-        <v>0.43340063455436978</v>
+        <v>0.43334294779348143</v>
       </c>
       <c r="G75">
-        <v>0.25774444764926452</v>
+        <v>0.25780213441015293</v>
       </c>
       <c r="H75">
         <v>0.29627920392269969</v>
@@ -3508,16 +3508,16 @@
         <v>215921.0568026953</v>
       </c>
       <c r="D76">
-        <v>0.50497533962100893</v>
+        <v>0.50500418216953646</v>
       </c>
       <c r="E76">
-        <v>0.49502466037899112</v>
+        <v>0.49499581783046348</v>
       </c>
       <c r="F76">
-        <v>0.43716650803264978</v>
+        <v>0.43719535058117742</v>
       </c>
       <c r="G76">
-        <v>0.26474575293472929</v>
+        <v>0.26471691038620171</v>
       </c>
       <c r="H76">
         <v>0.2876467364656341</v>
@@ -3658,10 +3658,10 @@
         <v>247690.03656108491</v>
       </c>
       <c r="D79">
-        <v>0.50050474459923278</v>
+        <v>0.50047590205070525</v>
       </c>
       <c r="E79">
-        <v>0.49949525540076722</v>
+        <v>0.49952409794929481</v>
       </c>
       <c r="F79">
         <v>0.4346860488592772</v>
@@ -3708,10 +3708,10 @@
         <v>259273.19665281579</v>
       </c>
       <c r="D80">
-        <v>0.50908566483991924</v>
+        <v>0.50911450822036342</v>
       </c>
       <c r="E80">
-        <v>0.49091433516008082</v>
+        <v>0.49088549177963658</v>
       </c>
       <c r="F80">
         <v>0.4279492356504182</v>
@@ -3758,16 +3758,16 @@
         <v>271497.51418692857</v>
       </c>
       <c r="D81">
-        <v>0.51230134694701623</v>
+        <v>0.5122725043984887</v>
       </c>
       <c r="E81">
-        <v>0.48769865305298382</v>
+        <v>0.4877274956015113</v>
       </c>
       <c r="F81">
-        <v>0.42101468085720062</v>
+        <v>0.42104352340572809</v>
       </c>
       <c r="G81">
-        <v>0.29410746733581378</v>
+        <v>0.29407862478728619</v>
       </c>
       <c r="H81">
         <v>0.27544633843846439</v>
@@ -3808,16 +3808,16 @@
         <v>284084.76577101962</v>
       </c>
       <c r="D82">
-        <v>0.51693106432073843</v>
+        <v>0.51695990770118261</v>
       </c>
       <c r="E82">
-        <v>0.48306893567926162</v>
+        <v>0.48304009229881739</v>
       </c>
       <c r="F82">
-        <v>0.43167003172771851</v>
+        <v>0.43164118834727427</v>
       </c>
       <c r="G82">
-        <v>0.29564464955292757</v>
+        <v>0.29567349293337181</v>
       </c>
       <c r="H82">
         <v>0.26308047303143928</v>
@@ -4058,10 +4058,10 @@
         <v>354742.05142716528</v>
       </c>
       <c r="D87">
-        <v>0.56358339822906756</v>
+        <v>0.56355455568053991</v>
       </c>
       <c r="E87">
-        <v>0.43641660177093239</v>
+        <v>0.43644544431946009</v>
       </c>
       <c r="F87">
         <v>0.37694326670704631</v>
@@ -4108,10 +4108,10 @@
         <v>372207.21397011098</v>
       </c>
       <c r="D88">
-        <v>0.55385059128929914</v>
+        <v>0.5539082780501875</v>
       </c>
       <c r="E88">
-        <v>0.44614940871070091</v>
+        <v>0.4460917219498125</v>
       </c>
       <c r="F88">
         <v>0.37161811364291902</v>
@@ -4126,13 +4126,13 @@
         <v>0.0085376406114796993</v>
       </c>
       <c r="J88">
-        <v>0.70187471544303426</v>
+        <v>0.70187564915382195</v>
       </c>
       <c r="K88">
         <v>0.0182064079339147</v>
       </c>
       <c r="L88">
-        <v>0.26045451883643778</v>
+        <v>0.26045358512565009</v>
       </c>
       <c r="M88">
         <v>0.019464357770295201</v>
@@ -4158,10 +4158,10 @@
         <v>390663.20277393208</v>
       </c>
       <c r="D89">
-        <v>0.57581263880476474</v>
+        <v>0.57578379625623721</v>
       </c>
       <c r="E89">
-        <v>0.42418736119523531</v>
+        <v>0.42421620374376279</v>
       </c>
       <c r="F89">
         <v>0.34789882033976521</v>
@@ -4176,13 +4176,13 @@
         <v>0.0085950794612212004</v>
       </c>
       <c r="J89">
-        <v>0.67878839798609769</v>
+        <v>0.67878750841199709</v>
       </c>
       <c r="K89">
         <v>0.019147440727633299</v>
       </c>
       <c r="L89">
-        <v>0.28246555772679782</v>
+        <v>0.28246644730089832</v>
       </c>
       <c r="M89">
         <v>0.019598603758911599</v>
